--- a/Code/Results/Cases/Case_5_216/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_216/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.470526460250312</v>
+        <v>1.019321692680165</v>
       </c>
       <c r="C2">
-        <v>0.157333531608927</v>
+        <v>0.0479486225917185</v>
       </c>
       <c r="D2">
-        <v>0.05696735443333623</v>
+        <v>0.0991888149321003</v>
       </c>
       <c r="E2">
-        <v>0.03663670548891851</v>
+        <v>0.05874338308593607</v>
       </c>
       <c r="F2">
-        <v>1.425363051084261</v>
+        <v>1.92141472027599</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,22 +442,22 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9554423638708442</v>
+        <v>1.544883511641942</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.453506520363533</v>
+        <v>0.8148757401611704</v>
       </c>
       <c r="L2">
-        <v>0.2912045436687833</v>
+        <v>0.2467597928773984</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.446719646000773</v>
+        <v>2.627067627999558</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.283992088388004</v>
+        <v>0.9749936956407907</v>
       </c>
       <c r="C3">
-        <v>0.1359504005420433</v>
+        <v>0.04172204689865566</v>
       </c>
       <c r="D3">
-        <v>0.05829137016037933</v>
+        <v>0.09938035963789105</v>
       </c>
       <c r="E3">
-        <v>0.03392275341981055</v>
+        <v>0.05837070214493423</v>
       </c>
       <c r="F3">
-        <v>1.336398398793236</v>
+        <v>1.907890773193515</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,22 +489,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9202914506798479</v>
+        <v>1.542902292285319</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.263021550589201</v>
+        <v>0.7674244833306147</v>
       </c>
       <c r="L3">
-        <v>0.2576877781635289</v>
+        <v>0.239294441631003</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.479126574605203</v>
+        <v>2.641760148719186</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.170932624432226</v>
+        <v>0.9483559185673585</v>
       </c>
       <c r="C4">
-        <v>0.1229606998229684</v>
+        <v>0.03789546538128263</v>
       </c>
       <c r="D4">
-        <v>0.05911082630614217</v>
+        <v>0.09949987815980688</v>
       </c>
       <c r="E4">
-        <v>0.03230266329182463</v>
+        <v>0.05816767181454274</v>
       </c>
       <c r="F4">
-        <v>1.284129564046793</v>
+        <v>1.900532097282081</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,22 +536,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9002277679618302</v>
+        <v>1.542342171065279</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.147505039470303</v>
+        <v>0.7387516762821065</v>
       </c>
       <c r="L4">
-        <v>0.2374802880872977</v>
+        <v>0.2348535731390058</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.500726277156112</v>
+        <v>2.651500712145435</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.125189480388741</v>
+        <v>0.9376467304189759</v>
       </c>
       <c r="C5">
-        <v>0.1176965770896032</v>
+        <v>0.03633515587704039</v>
       </c>
       <c r="D5">
-        <v>0.05944650679495389</v>
+        <v>0.09954906736362723</v>
       </c>
       <c r="E5">
-        <v>0.0316533608628049</v>
+        <v>0.05809143077961565</v>
       </c>
       <c r="F5">
-        <v>1.263381412554523</v>
+        <v>1.897770825965011</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,22 +583,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8924111608351808</v>
+        <v>1.542278880449466</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.100750143530547</v>
+        <v>0.7271835219089553</v>
       </c>
       <c r="L5">
-        <v>0.2293302373602302</v>
+        <v>0.2330797952925678</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.50994018911976</v>
+        <v>2.655650810055697</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.117612619024811</v>
+        <v>0.9358772951912044</v>
       </c>
       <c r="C6">
-        <v>0.1168240794789597</v>
+        <v>0.03607600812971157</v>
       </c>
       <c r="D6">
-        <v>0.05950235492397127</v>
+        <v>0.09955726458235148</v>
       </c>
       <c r="E6">
-        <v>0.03154618202928106</v>
+        <v>0.05807916357835019</v>
       </c>
       <c r="F6">
-        <v>1.259968389404733</v>
+        <v>1.897326654564054</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,22 +630,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8911343021758924</v>
+        <v>1.542278332122656</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.093004575882503</v>
+        <v>0.7252696587093226</v>
       </c>
       <c r="L6">
-        <v>0.2279817927308869</v>
+        <v>0.2327874293393819</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.511494578123731</v>
+        <v>2.656350843001192</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.170314434506679</v>
+        <v>0.9482108997030139</v>
       </c>
       <c r="C7">
-        <v>0.1228895948589468</v>
+        <v>0.03787442644021155</v>
       </c>
       <c r="D7">
-        <v>0.05911534619784753</v>
+        <v>0.09950053957581595</v>
       </c>
       <c r="E7">
-        <v>0.03229386339664586</v>
+        <v>0.05816661728979788</v>
       </c>
       <c r="F7">
-        <v>1.28384756464385</v>
+        <v>1.900493896660748</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9001209235101157</v>
+        <v>1.542340649690843</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.14687325045594</v>
+        <v>0.7385951934766979</v>
       </c>
       <c r="L7">
-        <v>0.2373700421524347</v>
+        <v>0.2348295059659193</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.500848892032138</v>
+        <v>2.65155595020002</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.405878046381559</v>
+        <v>1.003917122852499</v>
       </c>
       <c r="C8">
-        <v>0.1499280112464021</v>
+        <v>0.04580236202707511</v>
       </c>
       <c r="D8">
-        <v>0.05742259098376579</v>
+        <v>0.09925446586268194</v>
       </c>
       <c r="E8">
-        <v>0.03569086630290741</v>
+        <v>0.05860953331864849</v>
       </c>
       <c r="F8">
-        <v>1.394173824017969</v>
+        <v>1.916555381448362</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9429930318911275</v>
+        <v>1.544064106237634</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.387500824429395</v>
+        <v>0.798418521257048</v>
       </c>
       <c r="L8">
-        <v>0.2795652468796987</v>
+        <v>0.2441560694356184</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.457530368592842</v>
+        <v>2.631984238538344</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.881520237409489</v>
+        <v>1.117758773852671</v>
       </c>
       <c r="C9">
-        <v>0.2043446305059717</v>
+        <v>0.06132614393251856</v>
       </c>
       <c r="D9">
-        <v>0.05414973383965815</v>
+        <v>0.09878686389830449</v>
       </c>
       <c r="E9">
-        <v>0.04275584524955711</v>
+        <v>0.0596825176538438</v>
       </c>
       <c r="F9">
-        <v>1.631196149766438</v>
+        <v>1.955563800163304</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.040215607665864</v>
+        <v>1.552657361778245</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.872952540386535</v>
+        <v>0.9194104010799151</v>
       </c>
       <c r="L9">
-        <v>0.3656946298070238</v>
+        <v>0.2635813068848165</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.38686508894645</v>
+        <v>2.599317529893085</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.242392061711882</v>
+        <v>1.204216383256778</v>
       </c>
       <c r="C10">
-        <v>0.2456124281653871</v>
+        <v>0.07272466747247108</v>
       </c>
       <c r="D10">
-        <v>0.05176667489202025</v>
+        <v>0.09845214126901425</v>
       </c>
       <c r="E10">
-        <v>0.04824721173237734</v>
+        <v>0.06059527786079144</v>
       </c>
       <c r="F10">
-        <v>1.820942440883798</v>
+        <v>1.988826758970973</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.121324375262418</v>
+        <v>1.562159834447073</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.241154306096945</v>
+        <v>1.010568793196654</v>
       </c>
       <c r="L10">
-        <v>0.4316955603557062</v>
+        <v>0.2785503289682794</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.34483274827538</v>
+        <v>2.57880877176747</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.409795674780696</v>
+        <v>1.244163574549759</v>
       </c>
       <c r="C11">
-        <v>0.2647746375462532</v>
+        <v>0.0779102765572901</v>
       </c>
       <c r="D11">
-        <v>0.05068577250417405</v>
+        <v>0.09830172423475858</v>
       </c>
       <c r="E11">
-        <v>0.05082405522851374</v>
+        <v>0.06103751007249869</v>
       </c>
       <c r="F11">
-        <v>1.91139153717738</v>
+        <v>2.004964152080149</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.160734422293743</v>
+        <v>1.567177751167932</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.41196882340455</v>
+        <v>1.052536748941037</v>
       </c>
       <c r="L11">
-        <v>0.4624738563600488</v>
+        <v>0.2855127060836082</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.32814960634316</v>
+        <v>2.570238861048011</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.473722237377672</v>
+        <v>1.259379349813287</v>
       </c>
       <c r="C12">
-        <v>0.2720969183580024</v>
+        <v>0.07987409019077063</v>
       </c>
       <c r="D12">
-        <v>0.05027680641132015</v>
+        <v>0.09824502730949192</v>
       </c>
       <c r="E12">
-        <v>0.05181238732018656</v>
+        <v>0.06120885095187845</v>
       </c>
       <c r="F12">
-        <v>1.94630473041201</v>
+        <v>2.011219958137588</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.176057238920222</v>
+        <v>1.569178034118039</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.477202708385647</v>
+        <v>1.06850099525596</v>
       </c>
       <c r="L12">
-        <v>0.4742520621247195</v>
+        <v>0.2881712189370091</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.322209968533713</v>
+        <v>2.567103070455417</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.459929578976073</v>
+        <v>1.256098419745456</v>
       </c>
       <c r="C13">
-        <v>0.2705168300514629</v>
+        <v>0.07945114040069257</v>
       </c>
       <c r="D13">
-        <v>0.0503648707490818</v>
+        <v>0.09825722637188328</v>
       </c>
       <c r="E13">
-        <v>0.05159895431981809</v>
+        <v>0.06117177730625656</v>
       </c>
       <c r="F13">
-        <v>1.938754952223093</v>
+        <v>2.009866208305965</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.172738807097943</v>
+        <v>1.568742782876583</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.463127716507614</v>
+        <v>1.065059610772835</v>
       </c>
       <c r="L13">
-        <v>0.4717096894347037</v>
+        <v>0.2875976812304515</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.323471902764823</v>
+        <v>2.56777354783415</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.415043825259431</v>
+        <v>1.24541360965884</v>
       </c>
       <c r="C14">
-        <v>0.2653756629923834</v>
+        <v>0.0780718374790581</v>
       </c>
       <c r="D14">
-        <v>0.05065212023684218</v>
+        <v>0.0982970544967614</v>
       </c>
       <c r="E14">
-        <v>0.0509051073319533</v>
+        <v>0.06105152872763853</v>
       </c>
       <c r="F14">
-        <v>1.914250185389989</v>
+        <v>2.005475914882538</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,22 +1006,22 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.161986812362969</v>
+        <v>1.567340308556268</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.417324184889111</v>
+        <v>1.053848695915917</v>
       </c>
       <c r="L14">
-        <v>0.4634402995290401</v>
+        <v>0.2857309822372258</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.327653208308789</v>
+        <v>2.569978682908356</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.387621747339097</v>
+        <v>1.238880395424587</v>
       </c>
       <c r="C15">
-        <v>0.2622354547464596</v>
+        <v>0.07722699481864481</v>
       </c>
       <c r="D15">
-        <v>0.05082811108673013</v>
+        <v>0.09832148449686962</v>
       </c>
       <c r="E15">
-        <v>0.05048177644171403</v>
+        <v>0.0609783777038615</v>
       </c>
       <c r="F15">
-        <v>1.899328656338426</v>
+        <v>2.002805615278575</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.155454059072284</v>
+        <v>1.56649429356473</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.389342132834003</v>
+        <v>1.046991051157477</v>
       </c>
       <c r="L15">
-        <v>0.4583915547832333</v>
+        <v>0.2845904425619921</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.3302644527312</v>
+        <v>2.571343651710762</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.231522759916743</v>
+        <v>1.201618150276602</v>
       </c>
       <c r="C16">
-        <v>0.2443687969963833</v>
+        <v>0.07238579018837754</v>
       </c>
       <c r="D16">
-        <v>0.0518373688549616</v>
+        <v>0.09846200831768925</v>
       </c>
       <c r="E16">
-        <v>0.0480804952026368</v>
+        <v>0.06056691989040175</v>
       </c>
       <c r="F16">
-        <v>1.815120188094255</v>
+        <v>1.987792407402935</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,22 +1100,22 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.118802548455861</v>
+        <v>1.561845902663293</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.230064021396828</v>
+        <v>1.007836145608536</v>
       </c>
       <c r="L16">
-        <v>0.4297005258956546</v>
+        <v>0.2780984000527837</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.3459743608895</v>
+        <v>2.579384139516222</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.136637866134436</v>
+        <v>1.178916967219266</v>
       </c>
       <c r="C17">
-        <v>0.2335146790859426</v>
+        <v>0.06941602052307871</v>
       </c>
       <c r="D17">
-        <v>0.05245724896675341</v>
+        <v>0.09854868655772542</v>
       </c>
       <c r="E17">
-        <v>0.04662839311901479</v>
+        <v>0.06032141730407403</v>
       </c>
       <c r="F17">
-        <v>1.764565714898879</v>
+        <v>1.978840123445622</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,22 +1147,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.096987431364809</v>
+        <v>1.559172419105124</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.133251597520683</v>
+        <v>0.9839438650504917</v>
       </c>
       <c r="L17">
-        <v>0.4123026860088714</v>
+        <v>0.2741549201518438</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.356254851805588</v>
+        <v>2.584511428736917</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.08236320200001</v>
+        <v>1.165917946412264</v>
       </c>
       <c r="C18">
-        <v>0.2273076632740469</v>
+        <v>0.06770791675278076</v>
       </c>
       <c r="D18">
-        <v>0.05281409153227301</v>
+        <v>0.09859871589973856</v>
       </c>
       <c r="E18">
-        <v>0.04580052042383542</v>
+        <v>0.06018275373365256</v>
       </c>
       <c r="F18">
-        <v>1.735872667322354</v>
+        <v>1.973785670279469</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.084674052693806</v>
+        <v>1.557700128545797</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.077875156852031</v>
+        <v>0.9702486730898841</v>
       </c>
       <c r="L18">
-        <v>0.4023659345951813</v>
+        <v>0.2719011243273144</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.362395563008533</v>
+        <v>2.587531996320962</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.064036386111241</v>
+        <v>1.161526683367981</v>
       </c>
       <c r="C19">
-        <v>0.2252119668802379</v>
+        <v>0.06712958463407404</v>
       </c>
       <c r="D19">
-        <v>0.05293496779952278</v>
+        <v>0.0986156850166573</v>
       </c>
       <c r="E19">
-        <v>0.04552144222559562</v>
+        <v>0.06013624162191888</v>
       </c>
       <c r="F19">
-        <v>1.726221778739372</v>
+        <v>1.97209056950868</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.080544071098743</v>
+        <v>1.557212869150085</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.059176347014841</v>
+        <v>0.9656197897278957</v>
       </c>
       <c r="L19">
-        <v>0.3990131229702882</v>
+        <v>0.2711404984242449</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.364513009530143</v>
+        <v>2.588566979993359</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.146706937733711</v>
+        <v>1.181327534668696</v>
       </c>
       <c r="C20">
-        <v>0.2346663249363132</v>
+        <v>0.06973215394860688</v>
       </c>
       <c r="D20">
-        <v>0.05239123099999787</v>
+        <v>0.09853944149450378</v>
       </c>
       <c r="E20">
-        <v>0.04678220400717947</v>
+        <v>0.060347288333503</v>
       </c>
       <c r="F20">
-        <v>1.769907054870501</v>
+        <v>1.979783310004962</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.099285197906966</v>
+        <v>1.559450243596984</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.143525112849602</v>
+        <v>0.9864823727289433</v>
       </c>
       <c r="L20">
-        <v>0.414147366325949</v>
+        <v>0.2745732208760501</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.355136725833219</v>
+        <v>2.58395821990851</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.428212776689577</v>
+        <v>1.248549592554355</v>
       </c>
       <c r="C21">
-        <v>0.2668838732751624</v>
+        <v>0.07847696782175717</v>
       </c>
       <c r="D21">
-        <v>0.05056773948109416</v>
+        <v>0.0982853489057991</v>
       </c>
       <c r="E21">
-        <v>0.05110855658575986</v>
+        <v>0.06108674348318033</v>
       </c>
       <c r="F21">
-        <v>1.921429287251712</v>
+        <v>2.006761515013963</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.165133784111177</v>
+        <v>1.567749531270636</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.430762244115101</v>
+        <v>1.057139661744458</v>
       </c>
       <c r="L21">
-        <v>0.4658657539631008</v>
+        <v>0.2862786793793788</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.326414569343711</v>
+        <v>2.569328009143135</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.61534491702696</v>
+        <v>1.292999712348433</v>
       </c>
       <c r="C22">
-        <v>0.2883298199048738</v>
+        <v>0.08419304116171134</v>
       </c>
       <c r="D22">
-        <v>0.04937796531577376</v>
+        <v>0.09812081477794798</v>
       </c>
       <c r="E22">
-        <v>0.05400979689924412</v>
+        <v>0.06159261578525843</v>
       </c>
       <c r="F22">
-        <v>2.024353335540283</v>
+        <v>2.025238200155101</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.210516048004379</v>
+        <v>1.573757161003243</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.62173413375919</v>
+        <v>1.103737358089688</v>
       </c>
       <c r="L22">
-        <v>0.5003922809385415</v>
+        <v>0.2940571869794582</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.309860454448739</v>
+        <v>2.56040437376258</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.515156228590854</v>
+        <v>1.269228611475455</v>
       </c>
       <c r="C23">
-        <v>0.2768444603125459</v>
+        <v>0.08114216134545416</v>
       </c>
       <c r="D23">
-        <v>0.05001282293241971</v>
+        <v>0.09820849077439853</v>
       </c>
       <c r="E23">
-        <v>0.05245417703543254</v>
+        <v>0.06132055710232365</v>
       </c>
       <c r="F23">
-        <v>1.969040220146098</v>
+        <v>2.015299447268021</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,22 +1429,22 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.186066549564529</v>
+        <v>1.570497333083694</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.519485800806962</v>
+        <v>1.078828924985572</v>
       </c>
       <c r="L23">
-        <v>0.4818932063226811</v>
+        <v>0.2898939016380098</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.318483015982281</v>
+        <v>2.565108631819228</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.142153856104756</v>
+        <v>1.180237554544419</v>
       </c>
       <c r="C24">
-        <v>0.2341455633002738</v>
+        <v>0.06958923235227132</v>
       </c>
       <c r="D24">
-        <v>0.05242107626556347</v>
+        <v>0.09854362057342669</v>
       </c>
       <c r="E24">
-        <v>0.04671264451525659</v>
+        <v>0.06033558431882469</v>
       </c>
       <c r="F24">
-        <v>1.767491083311199</v>
+        <v>1.979356607754454</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.09824566897116</v>
+        <v>1.559324437510398</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.138879582666448</v>
+        <v>0.9853345863319873</v>
       </c>
       <c r="L24">
-        <v>0.4133131834345107</v>
+        <v>0.2743840654979834</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.355641515226978</v>
+        <v>2.584208098779115</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.751078772212622</v>
+        <v>1.086467629072359</v>
       </c>
       <c r="C25">
-        <v>0.1894314002920225</v>
+        <v>0.05712826127430048</v>
       </c>
       <c r="D25">
-        <v>0.05503085562679289</v>
+        <v>0.09891179283131457</v>
       </c>
       <c r="E25">
-        <v>0.04079599725921845</v>
+        <v>0.05937038119141391</v>
       </c>
       <c r="F25">
-        <v>1.564567596460506</v>
+        <v>1.94420432214568</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,22 +1523,22 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.012343470071173</v>
+        <v>1.54977341774029</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.73985119142651</v>
+        <v>0.8862827057751588</v>
       </c>
       <c r="L25">
-        <v>0.3419673530292613</v>
+        <v>0.2582041647421676</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.404337645354616</v>
+        <v>2.607542227327897</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_216/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_216/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019321692680165</v>
+        <v>1.470526460250312</v>
       </c>
       <c r="C2">
-        <v>0.0479486225917185</v>
+        <v>0.1573335316086144</v>
       </c>
       <c r="D2">
-        <v>0.0991888149321003</v>
+        <v>0.05696735443325451</v>
       </c>
       <c r="E2">
-        <v>0.05874338308593607</v>
+        <v>0.03663670548891851</v>
       </c>
       <c r="F2">
-        <v>1.92141472027599</v>
+        <v>1.425363051084261</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,22 +442,22 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.544883511641942</v>
+        <v>0.9554423638708442</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8148757401611704</v>
+        <v>1.453506520363533</v>
       </c>
       <c r="L2">
-        <v>0.2467597928773984</v>
+        <v>0.2912045436687976</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.627067627999558</v>
+        <v>1.446719646000773</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9749936956407907</v>
+        <v>1.283992088387834</v>
       </c>
       <c r="C3">
-        <v>0.04172204689865566</v>
+        <v>0.1359504005419012</v>
       </c>
       <c r="D3">
-        <v>0.09938035963789105</v>
+        <v>0.0582913701605392</v>
       </c>
       <c r="E3">
-        <v>0.05837070214493423</v>
+        <v>0.03392275341978568</v>
       </c>
       <c r="F3">
-        <v>1.907890773193515</v>
+        <v>1.336398398793222</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,22 +489,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.542902292285319</v>
+        <v>0.9202914506798621</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7674244833306147</v>
+        <v>1.263021550589173</v>
       </c>
       <c r="L3">
-        <v>0.239294441631003</v>
+        <v>0.2576877781635147</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.641760148719186</v>
+        <v>1.479126574605125</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9483559185673585</v>
+        <v>1.170932624432254</v>
       </c>
       <c r="C4">
-        <v>0.03789546538128263</v>
+        <v>0.1229606998229684</v>
       </c>
       <c r="D4">
-        <v>0.09949987815980688</v>
+        <v>0.05911082630610665</v>
       </c>
       <c r="E4">
-        <v>0.05816767181454274</v>
+        <v>0.03230266329182463</v>
       </c>
       <c r="F4">
-        <v>1.900532097282081</v>
+        <v>1.284129564046793</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,22 +536,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.542342171065279</v>
+        <v>0.9002277679618302</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7387516762821065</v>
+        <v>1.147505039470303</v>
       </c>
       <c r="L4">
-        <v>0.2348535731390058</v>
+        <v>0.2374802880872693</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.651500712145435</v>
+        <v>1.50072627715609</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9376467304189759</v>
+        <v>1.125189480388713</v>
       </c>
       <c r="C5">
-        <v>0.03633515587704039</v>
+        <v>0.117696577089859</v>
       </c>
       <c r="D5">
-        <v>0.09954906736362723</v>
+        <v>0.05944650679507113</v>
       </c>
       <c r="E5">
-        <v>0.05809143077961565</v>
+        <v>0.03165336086278892</v>
       </c>
       <c r="F5">
-        <v>1.897770825965011</v>
+        <v>1.263381412554537</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,22 +583,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.542278880449466</v>
+        <v>0.8924111608351879</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7271835219089553</v>
+        <v>1.100750143530519</v>
       </c>
       <c r="L5">
-        <v>0.2330797952925678</v>
+        <v>0.229330237360287</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.655650810055697</v>
+        <v>1.509940189119753</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9358772951912044</v>
+        <v>1.117612619024868</v>
       </c>
       <c r="C6">
-        <v>0.03607600812971157</v>
+        <v>0.1168240794791018</v>
       </c>
       <c r="D6">
-        <v>0.09955726458235148</v>
+        <v>0.05950235492389311</v>
       </c>
       <c r="E6">
-        <v>0.05807916357835019</v>
+        <v>0.03154618202929349</v>
       </c>
       <c r="F6">
-        <v>1.897326654564054</v>
+        <v>1.259968389404733</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,22 +630,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.542278332122656</v>
+        <v>0.8911343021758924</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7252696587093226</v>
+        <v>1.093004575882503</v>
       </c>
       <c r="L6">
-        <v>0.2327874293393819</v>
+        <v>0.2279817927309438</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.656350843001192</v>
+        <v>1.511494578123745</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9482108997030139</v>
+        <v>1.170314434506736</v>
       </c>
       <c r="C7">
-        <v>0.03787442644021155</v>
+        <v>0.1228895948592026</v>
       </c>
       <c r="D7">
-        <v>0.09950053957581595</v>
+        <v>0.05911534619783865</v>
       </c>
       <c r="E7">
-        <v>0.05816661728979788</v>
+        <v>0.03229386339664408</v>
       </c>
       <c r="F7">
-        <v>1.900493896660748</v>
+        <v>1.28384756464385</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.542340649690843</v>
+        <v>0.9001209235101015</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7385951934766979</v>
+        <v>1.146873250455911</v>
       </c>
       <c r="L7">
-        <v>0.2348295059659193</v>
+        <v>0.2373700421524916</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.65155595020002</v>
+        <v>1.500848892032124</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.003917122852499</v>
+        <v>1.405878046381389</v>
       </c>
       <c r="C8">
-        <v>0.04580236202707511</v>
+        <v>0.1499280112464447</v>
       </c>
       <c r="D8">
-        <v>0.09925446586268194</v>
+        <v>0.05742259098384217</v>
       </c>
       <c r="E8">
-        <v>0.05860953331864849</v>
+        <v>0.03569086630290919</v>
       </c>
       <c r="F8">
-        <v>1.916555381448362</v>
+        <v>1.394173824017955</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.544064106237634</v>
+        <v>0.9429930318911275</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.798418521257048</v>
+        <v>1.387500824429338</v>
       </c>
       <c r="L8">
-        <v>0.2441560694356184</v>
+        <v>0.2795652468796135</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.631984238538344</v>
+        <v>1.457530368592856</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.117758773852671</v>
+        <v>1.881520237409518</v>
       </c>
       <c r="C9">
-        <v>0.06132614393251856</v>
+        <v>0.2043446305059433</v>
       </c>
       <c r="D9">
-        <v>0.09878686389830449</v>
+        <v>0.05414973383945565</v>
       </c>
       <c r="E9">
-        <v>0.0596825176538438</v>
+        <v>0.04275584524956244</v>
       </c>
       <c r="F9">
-        <v>1.955563800163304</v>
+        <v>1.631196149766467</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.552657361778245</v>
+        <v>1.040215607665871</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9194104010799151</v>
+        <v>1.872952540386507</v>
       </c>
       <c r="L9">
-        <v>0.2635813068848165</v>
+        <v>0.3656946298071091</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.599317529893085</v>
+        <v>1.386865088946521</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.204216383256778</v>
+        <v>2.242392061711882</v>
       </c>
       <c r="C10">
-        <v>0.07272466747247108</v>
+        <v>0.2456124281656002</v>
       </c>
       <c r="D10">
-        <v>0.09845214126901425</v>
+        <v>0.05176667489208775</v>
       </c>
       <c r="E10">
-        <v>0.06059527786079144</v>
+        <v>0.04824721173239155</v>
       </c>
       <c r="F10">
-        <v>1.988826758970973</v>
+        <v>1.820942440883798</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.562159834447073</v>
+        <v>1.121324375262446</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.010568793196654</v>
+        <v>2.241154306096888</v>
       </c>
       <c r="L10">
-        <v>0.2785503289682794</v>
+        <v>0.4316955603556778</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.57880877176747</v>
+        <v>1.34483274827538</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.244163574549759</v>
+        <v>2.409795674780923</v>
       </c>
       <c r="C11">
-        <v>0.0779102765572901</v>
+        <v>0.2647746375460542</v>
       </c>
       <c r="D11">
-        <v>0.09830172423475858</v>
+        <v>0.05068577250417228</v>
       </c>
       <c r="E11">
-        <v>0.06103751007249869</v>
+        <v>0.05082405522851019</v>
       </c>
       <c r="F11">
-        <v>2.004964152080149</v>
+        <v>1.911391537177394</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.567177751167932</v>
+        <v>1.160734422293771</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.052536748941037</v>
+        <v>2.411968823404578</v>
       </c>
       <c r="L11">
-        <v>0.2855127060836082</v>
+        <v>0.4624738563601483</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.570238861048011</v>
+        <v>1.328149606343104</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.259379349813287</v>
+        <v>2.473722237377501</v>
       </c>
       <c r="C12">
-        <v>0.07987409019077063</v>
+        <v>0.2720969183578035</v>
       </c>
       <c r="D12">
-        <v>0.09824502730949192</v>
+        <v>0.05027680641111054</v>
       </c>
       <c r="E12">
-        <v>0.06120885095187845</v>
+        <v>0.05181238732018656</v>
       </c>
       <c r="F12">
-        <v>2.011219958137588</v>
+        <v>1.94630473041201</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.569178034118039</v>
+        <v>1.176057238920222</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.06850099525596</v>
+        <v>2.47720270838559</v>
       </c>
       <c r="L12">
-        <v>0.2881712189370091</v>
+        <v>0.4742520621248758</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.567103070455417</v>
+        <v>1.322209968533713</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.256098419745456</v>
+        <v>2.459929578976187</v>
       </c>
       <c r="C13">
-        <v>0.07945114040069257</v>
+        <v>0.2705168300514771</v>
       </c>
       <c r="D13">
-        <v>0.09825722637188328</v>
+        <v>0.05036487074884555</v>
       </c>
       <c r="E13">
-        <v>0.06117177730625656</v>
+        <v>0.05159895431983585</v>
       </c>
       <c r="F13">
-        <v>2.009866208305965</v>
+        <v>1.938754952223078</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.568742782876583</v>
+        <v>1.172738807097943</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.065059610772835</v>
+        <v>2.463127716507529</v>
       </c>
       <c r="L13">
-        <v>0.2875976812304515</v>
+        <v>0.4717096894346469</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.56777354783415</v>
+        <v>1.323471902764823</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.24541360965884</v>
+        <v>2.415043825259374</v>
       </c>
       <c r="C14">
-        <v>0.0780718374790581</v>
+        <v>0.2653756629927244</v>
       </c>
       <c r="D14">
-        <v>0.0982970544967614</v>
+        <v>0.05065212023696297</v>
       </c>
       <c r="E14">
-        <v>0.06105152872763853</v>
+        <v>0.05090510733194265</v>
       </c>
       <c r="F14">
-        <v>2.005475914882538</v>
+        <v>1.914250185389974</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,22 +1006,22 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.567340308556268</v>
+        <v>1.161986812362969</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.053848695915917</v>
+        <v>2.417324184889168</v>
       </c>
       <c r="L14">
-        <v>0.2857309822372258</v>
+        <v>0.4634402995290685</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.569978682908356</v>
+        <v>1.327653208308803</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.238880395424587</v>
+        <v>2.387621747338926</v>
       </c>
       <c r="C15">
-        <v>0.07722699481864481</v>
+        <v>0.2622354547463317</v>
       </c>
       <c r="D15">
-        <v>0.09832148449686962</v>
+        <v>0.05082811108670349</v>
       </c>
       <c r="E15">
-        <v>0.0609783777038615</v>
+        <v>0.05048177644175667</v>
       </c>
       <c r="F15">
-        <v>2.002805615278575</v>
+        <v>1.899328656338426</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.56649429356473</v>
+        <v>1.155454059072284</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.046991051157477</v>
+        <v>2.389342132833832</v>
       </c>
       <c r="L15">
-        <v>0.2845904425619921</v>
+        <v>0.4583915547832476</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.571343651710762</v>
+        <v>1.3302644527312</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.201618150276602</v>
+        <v>2.231522759916686</v>
       </c>
       <c r="C16">
-        <v>0.07238579018837754</v>
+        <v>0.2443687969962838</v>
       </c>
       <c r="D16">
-        <v>0.09846200831768925</v>
+        <v>0.05183736885484436</v>
       </c>
       <c r="E16">
-        <v>0.06056691989040175</v>
+        <v>0.04808049520263324</v>
       </c>
       <c r="F16">
-        <v>1.987792407402935</v>
+        <v>1.815120188094255</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,22 +1100,22 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.561845902663293</v>
+        <v>1.118802548455847</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.007836145608536</v>
+        <v>2.230064021396856</v>
       </c>
       <c r="L16">
-        <v>0.2780984000527837</v>
+        <v>0.4297005258956403</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.579384139516222</v>
+        <v>1.345974360889485</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.178916967219266</v>
+        <v>2.13663786613472</v>
       </c>
       <c r="C17">
-        <v>0.06941602052307871</v>
+        <v>0.2335146790860279</v>
       </c>
       <c r="D17">
-        <v>0.09854868655772542</v>
+        <v>0.05245724896676585</v>
       </c>
       <c r="E17">
-        <v>0.06032141730407403</v>
+        <v>0.04662839311898992</v>
       </c>
       <c r="F17">
-        <v>1.978840123445622</v>
+        <v>1.764565714898893</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,22 +1147,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.559172419105124</v>
+        <v>1.096987431364852</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9839438650504917</v>
+        <v>2.133251597520797</v>
       </c>
       <c r="L17">
-        <v>0.2741549201518438</v>
+        <v>0.4123026860088288</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.584511428736917</v>
+        <v>1.356254851805616</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.165917946412264</v>
+        <v>2.082363202000067</v>
       </c>
       <c r="C18">
-        <v>0.06770791675278076</v>
+        <v>0.2273076632739759</v>
       </c>
       <c r="D18">
-        <v>0.09859871589973856</v>
+        <v>0.05281409153226235</v>
       </c>
       <c r="E18">
-        <v>0.06018275373365256</v>
+        <v>0.04580052042388516</v>
       </c>
       <c r="F18">
-        <v>1.973785670279469</v>
+        <v>1.735872667322326</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.557700128545797</v>
+        <v>1.084674052693792</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9702486730898841</v>
+        <v>2.077875156852059</v>
       </c>
       <c r="L18">
-        <v>0.2719011243273144</v>
+        <v>0.4023659345951813</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.587531996320962</v>
+        <v>1.362395563008562</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.161526683367981</v>
+        <v>2.064036386111127</v>
       </c>
       <c r="C19">
-        <v>0.06712958463407404</v>
+        <v>0.2252119668802806</v>
       </c>
       <c r="D19">
-        <v>0.0986156850166573</v>
+        <v>0.0529349677996116</v>
       </c>
       <c r="E19">
-        <v>0.06013624162191888</v>
+        <v>0.04552144222559562</v>
       </c>
       <c r="F19">
-        <v>1.97209056950868</v>
+        <v>1.726221778739372</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.557212869150085</v>
+        <v>1.08054407109875</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9656197897278957</v>
+        <v>2.059176347014841</v>
       </c>
       <c r="L19">
-        <v>0.2711404984242449</v>
+        <v>0.3990131229703309</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.588566979993359</v>
+        <v>1.364513009530114</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.181327534668696</v>
+        <v>2.146706937733768</v>
       </c>
       <c r="C20">
-        <v>0.06973215394860688</v>
+        <v>0.2346663249363132</v>
       </c>
       <c r="D20">
-        <v>0.09853944149450378</v>
+        <v>0.05239123100002097</v>
       </c>
       <c r="E20">
-        <v>0.060347288333503</v>
+        <v>0.04678220400718303</v>
       </c>
       <c r="F20">
-        <v>1.979783310004962</v>
+        <v>1.769907054870487</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.559450243596984</v>
+        <v>1.099285197906966</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9864823727289433</v>
+        <v>2.143525112849687</v>
       </c>
       <c r="L20">
-        <v>0.2745732208760501</v>
+        <v>0.4141473663258779</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.58395821990851</v>
+        <v>1.355136725833248</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.248549592554355</v>
+        <v>2.42821277668952</v>
       </c>
       <c r="C21">
-        <v>0.07847696782175717</v>
+        <v>0.2668838732753471</v>
       </c>
       <c r="D21">
-        <v>0.0982853489057991</v>
+        <v>0.05056773948076199</v>
       </c>
       <c r="E21">
-        <v>0.06108674348318033</v>
+        <v>0.0511085565857563</v>
       </c>
       <c r="F21">
-        <v>2.006761515013963</v>
+        <v>1.921429287251726</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.567749531270636</v>
+        <v>1.165133784111177</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.057139661744458</v>
+        <v>2.430762244115158</v>
       </c>
       <c r="L21">
-        <v>0.2862786793793788</v>
+        <v>0.4658657539630298</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.569328009143135</v>
+        <v>1.326414569343754</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.292999712348433</v>
+        <v>2.615344917026846</v>
       </c>
       <c r="C22">
-        <v>0.08419304116171134</v>
+        <v>0.2883298199048738</v>
       </c>
       <c r="D22">
-        <v>0.09812081477794798</v>
+        <v>0.04937796531545935</v>
       </c>
       <c r="E22">
-        <v>0.06159261578525843</v>
+        <v>0.05400979689921215</v>
       </c>
       <c r="F22">
-        <v>2.025238200155101</v>
+        <v>2.024353335540283</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.573757161003243</v>
+        <v>1.210516048004365</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.103737358089688</v>
+        <v>2.621734133759219</v>
       </c>
       <c r="L22">
-        <v>0.2940571869794582</v>
+        <v>0.5003922809384136</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.56040437376258</v>
+        <v>1.309860454448739</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.269228611475455</v>
+        <v>2.515156228590797</v>
       </c>
       <c r="C23">
-        <v>0.08114216134545416</v>
+        <v>0.2768444603125317</v>
       </c>
       <c r="D23">
-        <v>0.09820849077439853</v>
+        <v>0.05001282293241083</v>
       </c>
       <c r="E23">
-        <v>0.06132055710232365</v>
+        <v>0.05245417703540411</v>
       </c>
       <c r="F23">
-        <v>2.015299447268021</v>
+        <v>1.969040220146098</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,22 +1429,22 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.570497333083694</v>
+        <v>1.186066549564529</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.078828924985572</v>
+        <v>2.519485800806876</v>
       </c>
       <c r="L23">
-        <v>0.2898939016380098</v>
+        <v>0.4818932063226384</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.565108631819228</v>
+        <v>1.318483015982267</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.180237554544419</v>
+        <v>2.142153856104869</v>
       </c>
       <c r="C24">
-        <v>0.06958923235227132</v>
+        <v>0.2341455633001459</v>
       </c>
       <c r="D24">
-        <v>0.09854362057342669</v>
+        <v>0.0524210762654711</v>
       </c>
       <c r="E24">
-        <v>0.06033558431882469</v>
+        <v>0.04671264451526369</v>
       </c>
       <c r="F24">
-        <v>1.979356607754454</v>
+        <v>1.767491083311199</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.559324437510398</v>
+        <v>1.098245668971174</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9853345863319873</v>
+        <v>2.138879582666533</v>
       </c>
       <c r="L24">
-        <v>0.2743840654979834</v>
+        <v>0.413313183434397</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.584208098779115</v>
+        <v>1.355641515226964</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.086467629072359</v>
+        <v>1.751078772212736</v>
       </c>
       <c r="C25">
-        <v>0.05712826127430048</v>
+        <v>0.1894314002921362</v>
       </c>
       <c r="D25">
-        <v>0.09891179283131457</v>
+        <v>0.05503085562658505</v>
       </c>
       <c r="E25">
-        <v>0.05937038119141391</v>
+        <v>0.04079599725925043</v>
       </c>
       <c r="F25">
-        <v>1.94420432214568</v>
+        <v>1.564567596460549</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,22 +1523,22 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.54977341774029</v>
+        <v>1.01234347007118</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8862827057751588</v>
+        <v>1.739851191426538</v>
       </c>
       <c r="L25">
-        <v>0.2582041647421676</v>
+        <v>0.3419673530292897</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.607542227327897</v>
+        <v>1.404337645354673</v>
       </c>
       <c r="O25">
         <v>0</v>
